--- a/src/test/resources/Eliminated_List2.xlsx
+++ b/src/test/resources/Eliminated_List2.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janga\eclipse-workspace\webscrapping\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A30E581-DC2D-41E5-A449-FAD9ABB4E072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5F700B-0607-4315-AF7C-FD2FF292984D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="3" xr2:uid="{F34155E5-6A8B-4E39-8975-29262B9CAC9B}"/>
   </bookViews>
@@ -18,11 +18,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet" sheetId="7" r:id="rId6"/>
+    <sheet name="VeganDiabetic" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="143">
   <si>
     <t>Search Input</t>
   </si>
@@ -56,12 +56,983 @@
   </si>
   <si>
     <t xml:space="preserve">Non Veg Daibetic </t>
+  </si>
+  <si>
+    <t>10 mins</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/images/recipe/diabetic.gif</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>Mixed Fruit Shrikhand, Healthy Diabetic Recipe</t>
+  </si>
+  <si>
+    <t>1 1/2 cups chopped mixed fruits
+1 cup hung low fat curds (chakka dahi) , refer handy tip
+1 tbsp warm low fat milk
+a few saffron (kesar) strands
+2 tsp sugar substitute
+1/4 tsp cardamom (elaichi) powder</t>
+  </si>
+  <si>
+    <t>Method
+Combine the milk and saffron in a small bowl and mix well till the saffron dissolves. Keep aside.
+Combine the curds, saffron-milk mixture, sugar substitute and cardamom powder in a bowl and mix well using a whisk.
+Refrigerate for at least an hour.
+Just before serving, place ¼th of the mixed fruits into a serving glass or bowl and top with ¼th of the chilled shrikhand.
+Repeat step 4 to make 3 more servings.
+Serve immediately.
+Handy tip:
+2 cups of low-fat curds, when tied in a muslin cloth and hung for 1½ hours, will yield 1 cup of hung low-fat curds.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 82 cal
+Protein 4.1 g
+Carbohydrates 15.9 g
+Fiber 1.9 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 63.5 mg
+Click here to view calories for Mixed Fruit Shrikhand, Healthy Diabetic Recipe</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mixed-fruit-shrikhand-healthy-diabetic-recipe-33703r</t>
+  </si>
+  <si>
+    <t>Recipe ID</t>
+  </si>
+  <si>
+    <t>Recipe Name</t>
+  </si>
+  <si>
+    <t>Page Title</t>
+  </si>
+  <si>
+    <t>Vegan Diabetic Food Category</t>
+  </si>
+  <si>
+    <t>Ingredients</t>
+  </si>
+  <si>
+    <t>RecipePrepTime</t>
+  </si>
+  <si>
+    <t>RecipeCookTime</t>
+  </si>
+  <si>
+    <t>Preparation Method</t>
+  </si>
+  <si>
+    <t>Nutrient values</t>
+  </si>
+  <si>
+    <t>Targetted morbid conditions (Diabeties/Hypertension/Hypothyroidism)</t>
+  </si>
+  <si>
+    <t>Recipe URL</t>
+  </si>
+  <si>
+    <t>Methi Dhal Koshimbir ( Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>Methi Dhal Koshimbir ( Diabetic Recipe ), Methi Dhal Koshimbir</t>
+  </si>
+  <si>
+    <t>1 cup green moong dal (split green gram)
+1 cup finely chopped tender small fenugreek (methi) leaves with the stalks
+2 green chillies , slit
+1/2 cup grated cucumber
+1 tbsp lemon juice
+salt to taste
+1/2 tsp sugar
+For The Garnish
+1 tbsp chopped coconut
+3 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>12 mins</t>
+  </si>
+  <si>
+    <t>Method
+Clean, wash and soak the moong dal in enough water for atleast 2 to 3 hours. Drain and discard the excess water.
+Combine the moong dal along with 2 cups of water in a deep pan and cook over a medium flame for 10 to 12 minutes or till the dal is cooked. Drain and keep aside to cool.
+Add the fenugreek leaves, green chillies, cucumber, lemon juice, salt and sugar and toss well.
+Serve immediately garnished with coconut and coriander.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 200 cal
+Protein 13.7 g
+Carbohydrates 34.6 g
+Fiber 5.7 g
+Fat 0.8 g
+Cholesterol 0 mg
+Sodium 22 mg
+Click here to view calories for Methi Dhal Koshimbir ( Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/methi-dhal-koshimbir--diabetic-recipe--33773r</t>
+  </si>
+  <si>
+    <t>Palak Shorba, Diabetic Friendly</t>
+  </si>
+  <si>
+    <t>Palak Shorba, Diabetic Friendly recipe, Palak Shorba</t>
+  </si>
+  <si>
+    <t>4 cups chopped spinach (palak)
+2 tbsp mint leaves (phudina)
+2 to 3 green chillies
+1 cup low fat milk (99.7% fat-free)
+salt to taste
+1 tsp freshly ground black pepper (kalimirch)
+1 tsp lemon juice
+1 tbsp ghee
+1 tbsp crushed garlic (lehsun)
+For The Garnish
+1 tbsp ginger (adrak) juliennes</t>
+  </si>
+  <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>Method
+Boil 2 cups of water in a deep pan, add the spinach and cook for 3 to 4 minutes and keep aside and allow to cool.
+When cool, add the mint leaves and green chillies and blend in a mixer to a smooth purée.
+Transfer it into a pan, add the milk and bring to boil.
+Add the salt, pepper and lemon juice and mix well.
+For the tempering, heat the ghee in a small pan, add the garlic and sauté over a medium flame till it turns golden brown in colour, while stirring continuously.
+Add this tempering to the spinach mixture. Mix well and simmer for another 2 to 3 minutes.
+Serve hot garnished with ginger juliennes.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 107 cal
+Protein 3.5 g
+Carbohydrates 4.7 g
+Fiber 1.7 g
+Fat 7 g
+Cholesterol 8 mg
+Sodium 49.6 mg
+Click here to view calories for Palak Shorba, Diabetic Friendly</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/palak-shorba-diabetic-friendly-33772r</t>
+  </si>
+  <si>
+    <t>low fat paneer and green peas stuffed paratha recipe | healthy green peas and paneer paratha | Indian style green pea paratha | healthy paneer matar paratha |</t>
+  </si>
+  <si>
+    <t>low fat paneer and green peas stuffed paratha recipe | healthy green peas and paneer paratha |</t>
+  </si>
+  <si>
+    <t>For Low Fat Paneer and Green Peas Stuffed Parathas
+To Be Mixed Into A Stuffing
+1/2 cup crumbled low fat paneer (cottage cheese)
+1/4 cup boiled and lightly crushed green peas
+1/4 cup finely chopped coriander (dhania)
+1/4 cup finely chopped mint leaves (phudina)
+2 tsp finely chopped green chillies
+salt to taste
+Other Ingredients
+1 cup whole wheat flour (gehun ka atta)
+salt to taste
+whole wheat flour (gehun ka atta) for rolling
+1 1/2 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>20 mins</t>
+  </si>
+  <si>
+    <t>Method
+To make low fat paneer and green peas stuffed paratha recipe combine the whole wheat flour and salt in a deep bowl, mix well and knead into a soft dough using enough water.
+Divide the dough into 6 equal portions.
+Roll a portion of dough into a 125 mm. (5”) diameter circle using a little whole wheat flour for rolling.
+Place one portion of the stuffing in the centre and bring together all the sides in the centre and seal tightly.
+Press it lightly to seal the stuffing, flatten the dough and roll out again into a 150 mm. (6") diameter circle using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and cook the paratha using ¼ tsp of oil and cook till golden brown spots appear on both the sides.
+Repeat with the remaining dough and stuffing to make 5 more parathas.
+Serve the low fat paneer and green peas stuffed paratha recipe immediately.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per paratha
+Energy 115 cal
+Protein 3 g
+Carbohydrates 19.9 g
+Fiber 2.8 g
+Fat 1.8 g
+Cholesterol 0 mg
+Sodium 44.5 mg
+Click here to view calories for Low Fat Paneer and Green Peas Stuffed Parathas, Diabetic Friendly</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/low-fat-paneer-and-green-peas-stuffed-parathas-diabetic-friendly-33776r</t>
+  </si>
+  <si>
+    <t>Vegetable Corn Bake ( Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>1 cup besan (bengal gram flour)
+1/4 cup grated sweet corn kernels (makai ke dane)
+1/4 cup grated cabbage
+1/4 cup shredded spinach (palak)
+1/4 cup grated carrot
+1 tsp ginger-green chilli paste
+salt to taste
+1/2 tsp sugar
+2 tbsp finely chopped coriander (dhania)
+1 tsp fruit salt
+1/4 tsp oil for greasing
+1 tsp oil for cooking
+1/2 tsp mustard seeds ( rai / sarson)
+1 tsp sesame seeds (til)
+a pinch asafoetida (hing)
+For The Garnish
+1 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+Combine the besan, corn, cabbage, spinach, carrots, ginger-green chilli paste, salt, sugar, coriander and ¼ cup of water together in a bowl and mix well.
+Add the fruit salt and sprinkle some water over it. When the bubbles form, mix gently.
+Pour the batter into a greased 150 mm (6”) diameter oven-proof baking dish and bake in a pre-heated oven at 180 c (360 f) for 20 to 25 minutes. Keep aside to cool.
+For the tempering, heat the oil in a small non-stick pan and add the mustard seeds.
+When the seeds crackle, add the sesame seeds and asafoetida and sauté for a second.
+Remove from the flame, add 2 tbsp of water and pour the mixture over the vegetable corn bake.
+When cool, cut into 16 equal portions.
+Serve immediately garnished with the coriander.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per piece
+Energy 65 cal
+Protein 3.2 g
+Carbohydrates 10.2 g
+Fiber 2.4 g
+Fat 1.4 g
+Cholesterol 0 mg
+Sodium 12.3 mg
+Click here to view calories for Vegetable Corn Bake ( Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/vegetable-corn-bake--diabetic-recipe--33775r</t>
+  </si>
+  <si>
+    <t>Phadthai Noodles ( Exotic Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>Phadthai Noodles ( Exotic Diabetic Recipe ), Phadthai Noodles</t>
+  </si>
+  <si>
+    <t>2 tsp oil
+2 tsp finely chopped garlic (lehsun)
+1/2 cup tofu cubes
+1/2 cup chopped spring onions with the greens
+1 cup bean sprouts
+2 tbsp roasted and coarsely powdered peanuts
+3 cups cooked noodles , refer handy tip
+3/4 tsp dry red chilli flakes (paprika)
+1 tsp sugar substitute
+1 tsp soy sauce
+1 tbsp lemon juice
+salt to taste
+For The Garnish
+2 tbsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a deep non-stick pan, add the garlic and sauté over a high flame for a minute, while stirring continuously.
+Add the all the remaining ingredients and toss well and cook on a medium flame for another minute.
+Serve hot garnished with coriander.
+Handy tip:
+To cook 3 cups of rice noodles, soak 3/4 packet of raw rice noodles in boiling hot water for 10 to 15 minutes or as the instructions on the package specify. Drain the water and immerse in cold water in order to arrest any further cooking. Drain and use as required.
+This recipe has been developed only to satisfy the occasionally craving of a diabetic for exotic dishes as it contains certain ingredients which need to be used restrictively. Hence this does not qualify as a regular everyday meal.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Nutrient values 
+Energy 179 calories
+Protein 9.3 gm
+Carbohydrates 20.5 gm
+Fat 6.5 gm
+Calcium 92.3 mg
+Iron 3.1 mg
+Fibre 2.3 gm</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/phadthai-noodles--exotic-diabetic-recipe--33766r</t>
+  </si>
+  <si>
+    <t>Thai Pineapple Kodri ( Exotic Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>Thai Pineapple Kodri ( Exotic Diabetic Recipe ), Thai Pineapple Kodri</t>
+  </si>
+  <si>
+    <t>To Be Ground Into Yellow Curry Paste
+2 stalks lemon grass (harechai ki patti) , finely chopped
+1 tbsp roasted cumin seeds (jeera)
+1 tbsp roasted coriander (dhania) seeds
+1/2 tbsp grated ginger (adrak)
+2 whole dry kashmiri red chillies , deseeded
+2 garlic (lehsun) cloves
+1/2 small onion , quartered
+1/2 tsp turmeric powder (haldi)
+salt to taste
+Other Ingredients
+2 tsp oil
+1/2 cup chopped onions
+1 tsp finely chopped green chillies
+2 cups finely chopped fresh pineapple
+1/4 cup coconut milk
+2 tsp chopped raisins (kismis)
+1 tsp sugar substitute
+salt to taste
+2 1/2 cups cooked kodri (varagu)
+For The Garnish
+4 lemon slices
+2 cashewnuts (kaju) , cut into halves</t>
+  </si>
+  <si>
+    <t>25 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a non-stick kadhai, add the onions and green chillies and sauté on a medium flame till the onions turn translucent.
+Add the yellow curry paste and sauté for a minute.
+Add the pineapple, coconut milk, raisins, sugar substitute and salt, mix well and cook over a medium flame for 8 to 10 minutes, while gently stirring continuously.
+Add the kodri, mix gently and cook for another minute.
+Serve hot garnished with lemon slices and cashewnuts.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accompaniments
+Phadthai Noodles ( Exotic Diabetic Recipe ) 
+Thai Stir- Fried Noodles with Tofu, Diabetic Friendly Recipe 
+Thai Style Pumpkin Soup </t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/thai-pineapple-kodri--exotic-diabetic-recipe--33765r</t>
+  </si>
+  <si>
+    <t>Lemon Grass Infusion Drink ( Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>Lemon Grass Infusion Drink ( Diabetic Recipe ), Lemon Grass Drink</t>
+  </si>
+  <si>
+    <t>1 cup finely chopped lemon grass
+1 cup finely chopped mint leaves (phudina)
+2 tbsp sugar substitute
+1/2 tbsp lemon juice
+4 glasses of soda
+For Serving
+a few ice-cubes</t>
+  </si>
+  <si>
+    <t>Method
+Combine the lemon grass, mint leaves, sugar substitute and ½ cup of water in a deep pan, mix well and bring it to boil. Keep aside to cool.
+When cool, blend in a mixer till smooth, strain though a muslin cloth to get an infusion and keep aside.
+Add the sugar substitute and lemon juice and mix well. Divide it into 4 equal portions and keep aside.
+Place a few ice-cubes into 4 individual glasses and pour a portion of the prepared infusion in each glass.
+Pour a glass of the soda over it in each glass and mix gently.
+Serve immediately.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per glass
+Energy 13 cal
+Protein 0.5 g
+Carbohydrates 2.7 g
+Fiber 0.5 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 0.5 mg
+Click here to view calories for Lemon Grass Infusion Drink ( Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/lemon-grass-infusion-drink--diabetic-recipe--33771r</t>
+  </si>
+  <si>
+    <t>Refreshco Regio ( Exotic Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>Refreshco Regio ( Exotic Diabetic Recipe ), Refreshco Regio</t>
+  </si>
+  <si>
+    <t>1/4 cup finely chopped orange
+1/4 cup finely chopped pineapple
+1/4 cup finely chopped strawberries
+1/4 cup finely chopped apples
+2 tsp lemon juice
+2 tsp sugar substitute
+1/2 cup freshly squeezed pineapple juice
+3 bottles plain soda</t>
+  </si>
+  <si>
+    <t>Method
+Combine the oranges, pineapple, strawberries, apples, lemon juice and sugar substitute in a bowl.
+In a glass, put a portion of the fruits and crush lightly using a pestle (khalbhatta).
+Add 1 tbsp of pineapple juice and pour ½ bottle of soda over it.
+Repeat with the remaining ingredients to make 5 more glasses.
+Serve immediately.
+Handy tip
+This recipe has been developed only to satisfy the occasionally craving of a diabetic for exotic dishes as it contains certain ingredients which need to be used restrictively. Hence this does not qualify as a regular everyday meal.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per glass
+Energy 40 cal
+Protein 0.4 g
+Carbohydrates 9.3 g
+Fiber 2.2 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 23.6 mg
+Click here to view calories for Refreshco Regio ( Exotic Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/refreshco-regio--exotic-diabetic-recipe--33747r</t>
+  </si>
+  <si>
+    <t>Barley Vegetable Soup ( Exotic Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>Barley Vegetable Soup ( Exotic Diabetic Recipe ), Barley Vegetable Soup</t>
+  </si>
+  <si>
+    <t>2 tsp oil
+2 tbsp finely chopped onions
+1/2 tsp finely chopped garlic (lehsun)
+4 cups vegetable stock
+2 tbsp chopped carrots
+3 tbsp tomato puree
+1 tbsp chopped tomatoes
+salt to taste
+2 tbsp cooked barley (jau)
+3 tbsp cooked macaroni
+1/4 cup finely chopped spinach (palak)
+1/2 tsp dried oregano
+1/2 tsp dry red chilli flakes (paprika)
+For The Garnish
+1 tbsp grated mozzarella cheese</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a deep non-stick pan, add the onions and garlic and sauté over a medium flame for 2 to 3 minutes, while stirring continuously.
+Add the vegetable stock, carrots, tomato purée, tomatoes,spinach and salt, mix well and simmer for 5 to 7 minutes.
+Add the barley and macaroni, mix well and simmer for another minute.
+Remove from the flame, add the oregano and red chilli flakes and mix well.
+Serve immediately garnished with cheese.
+Handy tip
+To cook barley and macaroni, boil a vesselful of water, add the barley and macaroni and boil for 10 to 15 minutes or till they are cooked. Refresh them using cold water, strain and use as required.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/barley-vegetable-soup--exotic-diabetic-recipe--33748r</t>
+  </si>
+  <si>
+    <t>Antipasto Duo ( Exotic Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>Antipasto Duo ( Exotic Diabetic Recipe ), Antipasto Duo</t>
+  </si>
+  <si>
+    <t>For The Lemon Honey Marinated Cottage Cheese
+1 tsp olive oil or any other oil
+1 tsp honey
+2 garlic (lehsun) cloves , crushed
+1 tsp lemon juice
+2 pinches grated lemon rind
+1/4 tsp dried thyme
+salt and to taste
+1 cup low fat paneer (cottage cheese) , cut into 25 mm. (1”) cubes
+For The Herb Marinated Capsicum and Baby Corn
+1 medium red capsicum , cut into quarters and deseeded
+1 medium green capsicum , cut into quarters and deseeded
+1 tsp olive oil or any other oil
+3 tsp lemon juice
+2 tsp finely chopped fresh basil
+2 tsp finely chopped fresh parsley
+salt to taste
+8 to 10 baby corn, cut into halves lengthwise and blanched</t>
+  </si>
+  <si>
+    <t>Method
+For the lemon honey marinated cottage cheese
+Combine all the ingredients, except the paneer, in a bowl and mix well.
+Add the paneer and toss well. Cover and refrigerate for about 2 to 3 hours.
+For the herb marinated capsicum and baby corn
+Heat a non-stick tava (griddle), place the capsicum skin side down and cook till the skin blisters and turns black.
+Remove from the flame and keep aside covered with a damp kitchen towel for 5 minutes.
+Peel away the skin and cut each capsicum piece into cubes. Keep aside.
+Combine the oil, lemon juice, basil, parsley and salt together in a bowl and mix well.
+Add the capsicum and baby corn, toss well and keep aside to marinate for at least 2 to 3 hours. Keep refrigerated.
+How to proceed
+Just before serving, arrange the lemon honey marinated cottage cheese and herb marinated capsicum and baby corn on a large serving platter.
+Handy tip:
+Remember to drain out the excess juices from all the marinated ingredients. However remember to drain only the excess and not all the juices, so that all the ingredients remain succulent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accompaniments
+Cheesy Corn and Pesto Mini Pizza 
+Grilled Veg Pizza Sandwich, Quick Kids Snack Recipe 
+Italian Open Toast Sandwich 
+Nutritious Mini Pizza </t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/antipasto-duo--exotic-diabetic-recipe--33750r</t>
+  </si>
+  <si>
+    <t>Mexican Kodri ( Exotic Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>Mexican Kodri ( Exotic Diabetic Recipe ), Mexican Kodri</t>
+  </si>
+  <si>
+    <t>1/2 cup kodri (varagu)
+2 to 3 garlic (lehsun) cloves, peeled and roughly chopped
+2 tsp dry red chilli flakes (paprika)
+2 tsp oil
+1/2 cup finely chopped spring onions with the greens
+1/2 cup chopped capsicum (red , yellow and green)
+1/2 cup soaked and cooked rajma (kidney beans)
+salt to taste
+2 tbsp finely chopped spring onions greens for the garnish</t>
+  </si>
+  <si>
+    <t>Method
+Clean, wash and soak the kodri for 5 to 7 minutes. Drain and keep aside.
+Boil a vesselful of water, when the water starts boiling add the kodri and ½ tsp oil and simmer for 10 to 12 minutes or till the kodri gets cooked. Drain, refresh using cold water and keep aside.
+Mix the garlic and red chilli flakes together in a mortar-pestle and pound till smooth. Keep aside.
+Heat the oil in a non-stick kadhai, add the garlic and chilli paste and sauté for a minute while stirring continuously.
+Add the onions and capsicum and sauté for 2 to 3 minutes.
+Add the rajma and salt, mix well and cook for a minute.
+Add the kodri, mix well and cook for another 2 to 3 minutes while stirring continuously.
+Serve hot garnished with spring onion greens.
+Handy tip:
+½ cup raw kodri when cooked in enough water, yields 2½ cups of cooked kodri.
+If kodri is not easily available, use dalia instead of kodri.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Nutrient values 
+Energy 106 calories
+Protein 3.3 gm
+Carbohydrates 16.6 gm
+Fat 2.8 gm
+Vitamin C 24.5 mg
+Calcium 28.6 mg
+Folic acid 2.2 mcg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mexican-kodri--exotic-diabetic-recipe--33745r</t>
+  </si>
+  <si>
+    <t>Mexican Skewers ( Exotic Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>Mexican Skewers ( Exotic Diabetic Recipe ), Mexican Skewers</t>
+  </si>
+  <si>
+    <t>1 large onion , cut into 50 mm. (2")
+12 mushrooms (khumbh) , stalks removed
+1/2 yellow capsicum , cut into 50 mm. (2”) cubes
+1/2 red capsicum , cut into 50 mm. (2”) cubes
+1/2 green capsicum , cut into 50 mm. (2”) cubes
+1/2 cup tofu (bean curd/soya paneer)
+1 1/2 tsp oil
+To Be Mixed Into A Marinade
+1 tsp oil
+1/2 tsp cocoa powder
+1 tsp chilli powder
+1/4 tsp dried oregano
+1 1/4 tsp garlic (lehsun) paste
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Method
+Boil a vesselful of water, add the mushrooms and simmer for 5 to 7 minutes. Drain and refresh using cold water. Keep aside.
+Combine the mushrooms, yellow, red and green capsicum and tofu together in a bowl, add the marinade, mix gently and keep aside for 15 to 20 minutes.
+On a skewer, arrange one piece each of onion, mushroom, yellow, red and green capsicums and tofu.
+Heat a non-stick tava (griddle), cook the skewers over a medium flame using ¼ tsp of oil till the vegetables and tofu are light brown in colour from all the sides.
+Repeat with the remaining ingredients to make 5 more skewers.
+Serve hot.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mexican-skewers--exotic-diabetic-recipe--33742r</t>
+  </si>
+  <si>
+    <t>Broccoli, Cheese and Chilli Quesadillas ( Exotic Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>Broccoli, Cheese and Chilli Quesadillas ( Exotic Diabetic Recipe ), Broccoli, Cheese and Chilli Quesadillas</t>
+  </si>
+  <si>
+    <t>8 whole wheat tortillas
+To Be Mixed Into A Stuffing
+3/4 cup blanched and finely chopped broccoli
+1/2 cup grated mozzarella cheese
+2 tsp finely chopped green chillies
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+Divide the stuffing into 4 equal portions and keep aside.
+Place a tortilla on a flat, dry surface, place a portion of the stuffing in the centre and spread it evenly.
+Place another tortilla over the stuffing and press it lightly to seal the edges.
+Cook on a non-stick tava (griddle) till both the sides are golden brown in colour.
+Repeat with the remaining tortillas and stuffing to make 3 more quesadillas.
+Cut each into 50 mm. (2”) square pieces and serve hot.
+Serve hot.
+Handy tip
+This recipe has been developed only to satisfy the ocassionally craving of a diabetic for exotic dishes as it contains certain ingredeints which need to be used restrictively. Hence this does not qualify as a regular everyday meal.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per quesadilla
+Energy 123 cal
+Protein 6.1 g
+Carbohydrates 19.6 g
+Fiber 3.1 g
+Fat 2.7 g
+Cholesterol 5.8 mg
+Sodium 164.3 mg
+Click here to view calories for Broccoli, Cheese and Chilli Quesadillas ( Exotic Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/broccoli-cheese-and-chilli-quesadillas--exotic-diabetic-recipe--33743r</t>
+  </si>
+  <si>
+    <t>Huanciana Broccoli and Baby Corn ( Exotic Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>Huanciana Broccoli and Baby Corn ( Exotic Diabetic Recipe ), Huanciana Broccoli and Baby Corn</t>
+  </si>
+  <si>
+    <t>For The Sauce
+1/2 cup fresh low fat paneer (cottage cheese)
+2 tbsp low fat milk (99.7% fat-free)
+1 tsp finely chopped green chillies
+salt to taste
+Other Ingredients
+1 1/2 cups broccoli florets
+1 cup baby corn , cut into halves lengthwise
+1 tsp low fat butter
+salt and to taste
+2 tbsp grated mozzarella cheese</t>
+  </si>
+  <si>
+    <t>Method
+For the sauce
+Combine together the paneer, milk and 2 tbsp of water and blend in a mixer till smooth.
+Add the green chillies and salt, mix well and keep aside.
+How to proceed
+Boil a vesselful of water, add the broccoli and baby corn and cook for 2 to 3 minutes.
+Drain and refresh using cold water. Keep aside.
+Heat the butter in a non-stick pan, add the broccoli, baby corn, salt and pepper, mix well and sauté over a medium flame, while stirring continuously. Keep aside.
+In a glass baking tray, spread the broccoli and baby corn evenly at the bottom, pour the sauce over it and spread it evenly.
+Sprinkle the cheese evenly on top and bake in a pre-heated oven at 200ºc (400ºf) for 10 minutes or till the cheese melts and turn light brown in colour.
+Serve hot.
+Handy tip
+This recipe has been developed only to satisfy the occasionally craving of a diabetic for exotic dishes as it contains certain ingredients which need to be used restrictively. Hence this does not qualify as a regular everyday meal.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accompaniments
+Bruschettas ( Healthy Diabetic Cooking ) 
+Carrot and Moong Dal Pulao 
+Clear Vegetable Soup with Tofu, Healthy Diabetic Recipe 
+Vegetable Penne ( Exotic Diabetic Recipe ) </t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/huanciana-broccoli-and-baby-corn--exotic-diabetic-recipe--33744r</t>
+  </si>
+  <si>
+    <t>Apple Pancake, Healthy Diabetic Dessert Recipe</t>
+  </si>
+  <si>
+    <t>For The Pancakes
+3/4 cup whole wheat flour (gehun ka atta)
+a pinch of salt
+1 tsp low-fat melted butter brush (for greasing) and cooking
+For The Apples
+28 apple wedges , unpeeled
+1 small stick cinnamon (dalchini)
+1 tsp lemon juice
+2 tsp sugar substitute</t>
+  </si>
+  <si>
+    <t>Method
+For the pancakes
+Combine the whole wheat flour, salt and 1¼ cups of water in a deep bowl and whisk well. Keep aside.
+Heat a non-stick tava (griddle) and grease it with a little melted butter.
+Pour ¼ cup of the batter over it and cook using very little melted butter till it turns light brown in colour.
+Turn the pancake around and cook on the other side as well.
+Repeat steps 2 to 4 to make 6 more pancakes. Keep aside.
+For the apples
+Combine the apples, cinnamon stick, lemon juice and 2 tbsp of water in a broad non-stick pan and mix gently. Cover with a lid and cook on a medium flame for 4 minutes while tossing it occasionally.
+Switch off the flame, add the sugar substitute and toss gently. Keep aside.
+How to proceed
+Place a pancake on a clean dry surface, put 4 cooked apples on one side of the pancake and fold to make a semi-circle.
+Repeat step 1 to stuff 6 more pancakes.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per crepe
+Energy 89 cal
+Protein 1.8 g
+Carbohydrates 18.9 g
+Fiber 3.8 g
+Fat 0.9 g
+Cholesterol 1.1 mg
+Sodium 24.3 mg
+Click here to view calories for Apple Pancake, Healthy Diabetic Dessert Recipe</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-pancake-healthy-diabetic-dessert-recipe-33702r</t>
+  </si>
+  <si>
+    <t>Thandai Ice Cream, Healthy Diabetic Recipe</t>
+  </si>
+  <si>
+    <t>For The Thandai Paste
+1 tbsp fennel seeds (saunf)
+1 to 2 peppercorns (kalimirch)
+2 tsp poppy seeds (khus-khus)
+a few saffron (kesar) strands
+1 tbsp warm low fat milk
+6 almonds (badam) , blanched and peeled
+a pinch cardamom (elaichi) powder
+1 tbsp rose water
+Other Ingredients
+2 cups low fat milk
+2 tbsp cornflour mixed with 1/2 cup low fat milk
+3 to 4 sachets sugar substitute</t>
+  </si>
+  <si>
+    <t>Method
+For thandai paste
+Combine the fennel seeds, peppercorns and poppy seeds together and soak in warm water for 30 minutes. Drain.
+Add the saffron mixture, almonds and cardamom and blend in a mixer to a smooth paste using rose water. Keep aside.
+How to proceed
+Heat the milk in a broad non-stick pan, when it starts boiling, add the cornflour mixture, mix well and simmer till it coats the back of a spoon, while stirring continuously. Keep aside.
+When cool, add the sugar substitute and prepared thandai paste, mix well and pour into an air-tight container.
+Refrigerate for at least 4 to 6 hours.
+Blend in a mixer till it is slushy and mix well.
+Pour back into an air-tight container and freeze till the ice-cream is set.
+Serve chilled.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per small scoop
+Energy 89 cal
+Protein 4.6 g
+Carbohydrates 14.8 g
+Fiber 0.7 g
+Fat 1.3 g
+Cholesterol 0 mg
+Sodium 52.2 mg
+Click here to view calories for Thandai Ice Cream, Healthy Diabetic Recipe</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/thandai-ice-cream-healthy-diabetic-recipe-33705r</t>
+  </si>
+  <si>
+    <t>Sugar Free Date Rolls, Healthy Diabetic Recipe</t>
+  </si>
+  <si>
+    <t>1/2 tsp ghee
+3/4 cup deseeded and finely chopped black dates (kala khajur)
+1 tbsp chopped almonds (badam)
+1 tbsp chopped pistachios
+1 tbsp chopped walnuts (akhrot)
+2 tbsp poppy seeds (khus-khus) for coating</t>
+  </si>
+  <si>
+    <t>Method
+Heat the ghee in a small non-stick pan, add the dates and cook on a slow flame, while stirring continuously for 5 to 7 minutes or till they turn into a soft lump.
+Remove and add the almonds, pistachio nuts and walnuts and mix well.
+Divide into 6 equal portions and shape each portion into a roll.
+Coat each roll with poppy seeds and refrigerate to set.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per roll
+Energy 79 cal
+Protein 1.6 g
+Carbohydrates 7.1 g
+Fiber 1.6 g
+Fat 4.8 g
+Cholesterol 0 mg
+Sodium 0 mg
+Click here to view calories for Sugar Free Date Rolls, Healthy Diabetic Recipe</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sugar-free-date-rolls-healthy-diabetic-recipe-33704r</t>
+  </si>
+  <si>
+    <t>Strawberry Lollies, Healthy Diabetic Recipe</t>
+  </si>
+  <si>
+    <t>1 cup low fat curds (dahi)
+1/4 cup low fat cream
+1/4 cup skimmed milk powder
+2 tbsp roasted and powdered quick cooking rolled oats
+1 cup fresh strawberry puree
+1 tbsp sugar substitute
+1/2 tsp vanilla essence</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients and blend in a mixer till smooth.
+Pour into plastic lolly moulds or ice-cube trays and freeze for 6 to 8 hours till firm.
+Insert wooden ice-cream sticks into the frozen lollies and unmould.
+Serve immediately.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per lollie
+Energy 29 cal
+Protein 1.4 g
+Carbohydrates 5.3 g
+Fiber 0.8 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 14.4 mg
+Click here to view calories for Strawberry Lollies, Healthy Diabetic Recipe</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/strawberry-lollies-healthy-diabetic-recipe-33701r</t>
+  </si>
+  <si>
+    <t>Paneer, Walnut and Celery Rolls, Healthy Diabetic Recipe</t>
+  </si>
+  <si>
+    <t>1 tsp low fat butter
+1/2 cup crumbled low fat paneer (cottage cheese)
+salt and to taste
+4 whole wheat bread slices
+2 tbsp finely chopped celery (ajmoda)
+2 tbsp finely chopped walnuts (akhrot)
+1 tsp finely chopped green chillies
+1/2 tsp mustard (rai / sarson) powder
+2 to 3 iceberg lettuce leaves , torn into small pieces</t>
+  </si>
+  <si>
+    <t>4 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat the butter in a non-stick pan, add the paneer and sauté on a medium flame for 2 minutes, while stirring continuously.
+Add the salt and pepper and mix well. Keep aside.
+Cut and discard the crust of the bread slices.
+Press the slices a little, using a rolling pin. If they crack, steam the slices for 2 minutes in a dhokla steamer or a pressure cooker without the whistle and then roll out again. Keep aside.
+Combine the paneer, celery, walnuts, green chillies and mustard powder (add salt if required), mix well and divide the mixture into 4 equal portions.
+Place a bread slice on a dry, flat surface, spread a portion of the paneer mixture on it evenly and top with a few lettuce pieces.
+Roll up tightly and secure the roll by inserting a toothpick.
+Repeat with the remaining bread slices and paneer mixture to make 3 more rolls. Refrigerate for an hour.
+Just before serving, cut each roll into 2 pieces and serve immediately.
+Handy tip:
+You can make a delicious sandwich using the same filling mixture.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per roll
+Energy 69 cal
+Protein 2.1 g
+Carbohydrates 2.8 g
+Fiber 0.3 g
+Fat 5.5 g
+Cholesterol 1.9 mg
+Sodium 23.6 mg
+Click here to view calories for Paneer, Walnut and Celery Rolls, Healthy Diabetic Recipe</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/paneer-walnut-and-celery-rolls-healthy-diabetic-recipe-33696r</t>
+  </si>
+  <si>
+    <t>Veg Fried Kodri, Diabetic Friendly Recipe</t>
+  </si>
+  <si>
+    <t>2 tsp oil
+1 tbsp chopped celery (ajmoda)
+1/2 cup chopped spring onions whites
+1/2 cup thinly diagonally cut french beans
+1/4 cup thinly sliced carrots
+1/2 cup thinly sliced capsicum
+1/2 cup shredded cabbage
+1/2 cup bean sprouts
+2 1/2 cups cooked kodri (varagu)
+1 tsp soy sauce
+1 tsp vinegar
+1 cup chopped spring onion greens
+salt to taste
+For Serving
+chillies in vinegar
+chilli sauce</t>
+  </si>
+  <si>
+    <t>40 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a non-stick kadhai, add the celery, spring onion whites, french beans carrots, capsicum, cabbage and bean sprouts, mix well and sauté on a high flame for 3 to 4 minutes while stirring continuously.
+Add the kodri, soya sauce, spring onion greens and salt, toss gently and sauté on a high flame for another minute, while stirring gently once in between.
+Serve hot with chillies in vinegar and chilli sauce.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 317 cal
+Protein 8.7 g
+Carbohydrates 62.3 g
+Fiber 9.9 g
+Fat 3.9 g
+Cholesterol 0 mg
+Sodium 99.4 mg
+Click here to view calories for Veg Fried Kodri, Diabetic Friendly Recipe</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/veg-fried-kodri-diabetic-friendly-recipe-33691r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,12 +1381,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD1048576"/>
+      <selection activeCell="D18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" customWidth="true" width="18.33203125"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -427,7 +1398,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="A1:XFD1048576"/>
+      <selection activeCell="D24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -441,7 +1412,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -455,7 +1426,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -505,15 +1476,252 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>